--- a/Guia_Facturas_GNX_ESP.xlsx
+++ b/Guia_Facturas_GNX_ESP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/WORKPLACE/CREA Y CRECE/GUIAS/FACTURAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/GenerixCyC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B496BF0C-0692-4015-B223-34FA6B5A5DEA}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC59BB5-7F6F-4622-983A-374701F1C258}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-16470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14115" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="603">
   <si>
     <t>JSON</t>
   </si>
@@ -1871,6 +1871,9 @@
   </si>
   <si>
     <t>Array de Facturas.</t>
+  </si>
+  <si>
+    <t>Disponible la lista de códigos en la hoja ENUMS.</t>
   </si>
 </sst>
 </file>
@@ -2273,9 +2276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209194</xdr:colOff>
+      <xdr:colOff>213004</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>396275</xdr:rowOff>
+      <xdr:rowOff>400085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2329,9 +2332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>206175</xdr:colOff>
+      <xdr:colOff>209985</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>360979</xdr:rowOff>
+      <xdr:rowOff>364789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -3308,8 +3311,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3593,7 +3596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>356</v>
@@ -3604,7 +3607,9 @@
       <c r="D15" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="25" t="s">
+        <v>602</v>
+      </c>
       <c r="F15" s="26" t="s">
         <v>131</v>
       </c>
@@ -3615,7 +3620,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>357</v>
@@ -3626,7 +3631,9 @@
       <c r="D16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="25" t="s">
+        <v>602</v>
+      </c>
       <c r="F16" s="26" t="s">
         <v>131</v>
       </c>
@@ -4398,8 +4405,8 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4609,7 +4616,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="20" t="s">
         <v>390</v>
@@ -4620,7 +4627,9 @@
       <c r="D12" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="F12" s="43" t="s">
         <v>131</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="20" t="s">
         <v>391</v>
@@ -4642,7 +4651,9 @@
       <c r="D13" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="F13" s="43" t="s">
         <v>131</v>
       </c>
@@ -4752,7 +4763,9 @@
       <c r="D18" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="F18" s="43" t="s">
         <v>140</v>
       </c>
@@ -5470,7 +5483,7 @@
       <c r="D51" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="43" t="s">
         <v>131</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="21" t="s">
         <v>408</v>
@@ -5492,7 +5505,9 @@
       <c r="D52" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="F52" s="43" t="s">
         <v>131</v>
       </c>
@@ -5503,7 +5518,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="21" t="s">
         <v>409</v>
@@ -5514,7 +5529,9 @@
       <c r="D53" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="F53" s="43" t="s">
         <v>131</v>
       </c>
@@ -5536,7 +5553,7 @@
       <c r="D54" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="43" t="s">
         <v>131</v>
       </c>
@@ -5558,7 +5575,7 @@
       <c r="D55" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="43" t="s">
         <v>140</v>
       </c>
@@ -5580,7 +5597,7 @@
       <c r="D56" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="43" t="s">
         <v>140</v>
       </c>
@@ -5602,7 +5619,7 @@
       <c r="D57" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="43" t="s">
         <v>140</v>
       </c>
@@ -5624,7 +5641,9 @@
       <c r="D58" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="F58" s="43" t="s">
         <v>140</v>
       </c>
@@ -5646,7 +5665,7 @@
       <c r="D59" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="43" t="s">
         <v>131</v>
       </c>
@@ -6111,9 +6130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6317,7 +6336,7 @@
       <c r="D11" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="26" t="s">
         <v>131</v>
       </c>
@@ -6339,7 +6358,9 @@
       <c r="D12" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F12" s="26" t="s">
         <v>131</v>
       </c>
@@ -6350,7 +6371,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>438</v>
@@ -6361,7 +6382,9 @@
       <c r="D13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F13" s="26" t="s">
         <v>131</v>
       </c>
@@ -6383,7 +6406,7 @@
       <c r="D14" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="26" t="s">
         <v>140</v>
       </c>
@@ -6405,7 +6428,7 @@
       <c r="D15" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="26" t="s">
         <v>140</v>
       </c>
@@ -6416,7 +6439,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
         <v>539</v>
@@ -6427,7 +6450,9 @@
       <c r="D16" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F16" s="26" t="s">
         <v>131</v>
       </c>
@@ -6449,7 +6474,9 @@
       <c r="D17" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F17" s="26" t="s">
         <v>131</v>
       </c>
@@ -6471,7 +6498,7 @@
       <c r="D18" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="26" t="s">
         <v>131</v>
       </c>
@@ -6493,7 +6520,7 @@
       <c r="D19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="26" t="s">
         <v>131</v>
       </c>
@@ -6515,7 +6542,7 @@
       <c r="D20" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="26" t="s">
         <v>131</v>
       </c>
@@ -6537,7 +6564,9 @@
       <c r="D21" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F21" s="26" t="s">
         <v>131</v>
       </c>
@@ -6559,7 +6588,9 @@
       <c r="D22" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F22" s="26" t="s">
         <v>131</v>
       </c>
@@ -6581,7 +6612,7 @@
       <c r="D23" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="26" t="s">
         <v>140</v>
       </c>
@@ -6821,7 +6852,9 @@
       <c r="D34" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E34" s="26"/>
+      <c r="E34" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F34" s="26" t="s">
         <v>131</v>
       </c>
@@ -7258,7 +7291,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>466</v>
@@ -7656,7 +7689,9 @@
       <c r="D71" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E71" s="26"/>
+      <c r="E71" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F71" s="26" t="s">
         <v>140</v>
       </c>
@@ -7803,7 +7838,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
         <v>489</v>
@@ -7913,7 +7948,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
         <v>494</v>
@@ -8014,7 +8049,9 @@
       <c r="D87" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E87" s="26"/>
+      <c r="E87" s="24" t="s">
+        <v>602</v>
+      </c>
       <c r="F87" s="26" t="s">
         <v>131</v>
       </c>
@@ -8664,18 +8701,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8823,18 +8860,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Guia_Facturas_GNX_ESP.xlsx
+++ b/Guia_Facturas_GNX_ESP.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/GenerixCyC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC59BB5-7F6F-4622-983A-374701F1C258}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E102EA7-F41D-4ED4-BEE7-1DF2B3455179}"/>
   <bookViews>
-    <workbookView xWindow="-14115" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="0" windowWidth="13320" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
     <sheet name="Grupo1" sheetId="3" r:id="rId2"/>
     <sheet name="Grupo 2.1" sheetId="4" r:id="rId3"/>
     <sheet name="Grupo 2.2" sheetId="5" r:id="rId4"/>
+    <sheet name="ENUMS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="785">
   <si>
     <t>JSON</t>
   </si>
@@ -1874,13 +1875,559 @@
   </si>
   <si>
     <t>Disponible la lista de códigos en la hoja ENUMS.</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Tipo de Persona</t>
+  </si>
+  <si>
+    <t>Persona Física</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Persona Jurídica</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Tipo de Residencia</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Residente (En España)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Residente en la Unión Europea (Excepto España)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>Original rectificativa</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Original recapitulativa</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>Coipa original</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Copia rectificativa</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Copia recapitulativa</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Unidades de medida</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Horas-HUR</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Kilogramos-KGM</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Litros-LTR</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cajas-BX</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Bandejas-DS</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Barriles-BA</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Bidones-JY</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Bolsas-BG</t>
+  </si>
+  <si>
+    <t>Bombonas-CO</t>
+  </si>
+  <si>
+    <t>Botellas-BO</t>
+  </si>
+  <si>
+    <t>Botes-CI</t>
+  </si>
+  <si>
+    <t>Tetra Bricks</t>
+  </si>
+  <si>
+    <t>Centilitros-CLT</t>
+  </si>
+  <si>
+    <t>Centímetros-CMT</t>
+  </si>
+  <si>
+    <t>Cubos-BI</t>
+  </si>
+  <si>
+    <t>Docenas</t>
+  </si>
+  <si>
+    <t>Estuches-CS</t>
+  </si>
+  <si>
+    <t>Garrafas-DJ</t>
+  </si>
+  <si>
+    <t>Gramos-GRM</t>
+  </si>
+  <si>
+    <t>Kilómetros-KMT</t>
+  </si>
+  <si>
+    <t>Latas-CA</t>
+  </si>
+  <si>
+    <t>Manojos-BH</t>
+  </si>
+  <si>
+    <t>Metros-MTR</t>
+  </si>
+  <si>
+    <t>Milímetros-MMT</t>
+  </si>
+  <si>
+    <t>6-Packs</t>
+  </si>
+  <si>
+    <t>Paquetes-PK</t>
+  </si>
+  <si>
+    <t>Raciones</t>
+  </si>
+  <si>
+    <t>Rollos-RO</t>
+  </si>
+  <si>
+    <t>Sobres-EN</t>
+  </si>
+  <si>
+    <t>Tarrinas-TB</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>IPSI</t>
+  </si>
+  <si>
+    <t>IGIC</t>
+  </si>
+  <si>
+    <t>IRPF</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>ITPAJD</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>IGTECM</t>
+  </si>
+  <si>
+    <t>IECDPCAC</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>IIIMAB</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ICIO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>IMVDN</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>IMSN</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>IMGSN</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>IMPN</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Formas de pago</t>
+  </si>
+  <si>
+    <t>Al contado</t>
+  </si>
+  <si>
+    <t>Recibo Domiciliado</t>
+  </si>
+  <si>
+    <t>Recibo</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Letra Aceptada</t>
+  </si>
+  <si>
+    <t>Crédito Documentario</t>
+  </si>
+  <si>
+    <t>Contrato Adjudicación</t>
+  </si>
+  <si>
+    <t>Letra de cambio</t>
+  </si>
+  <si>
+    <t>Pagaré a la Orden</t>
+  </si>
+  <si>
+    <t>Pagaré No a la Orden</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Reposición</t>
+  </si>
+  <si>
+    <t>Especiales</t>
+  </si>
+  <si>
+    <t>Compensación</t>
+  </si>
+  <si>
+    <t>Giro postal</t>
+  </si>
+  <si>
+    <t>Cheque conformado</t>
+  </si>
+  <si>
+    <t>Cheque bancario</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Pago contra reembolso</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Pago mediante tarjeta</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Motivos de rectificación</t>
+  </si>
+  <si>
+    <t>Corrective (ReasonCode)</t>
+  </si>
+  <si>
+    <t>Número de la factura</t>
+  </si>
+  <si>
+    <t>Serie de la factura</t>
+  </si>
+  <si>
+    <t>Fecha expedición</t>
+  </si>
+  <si>
+    <t>Nombre y apellidos/Razón Social-Emisor</t>
+  </si>
+  <si>
+    <t>Nombre y apellidos/Razón Social-Receptor</t>
+  </si>
+  <si>
+    <t>Identificación fiscal Emisor/obligado</t>
+  </si>
+  <si>
+    <t>Identificación fiscal Receptor</t>
+  </si>
+  <si>
+    <t>Domicilio Emisor/Obligado</t>
+  </si>
+  <si>
+    <t>Domicilio Receptor</t>
+  </si>
+  <si>
+    <t>Detalle Operación</t>
+  </si>
+  <si>
+    <t>Porcentaje impositivo a aplicar</t>
+  </si>
+  <si>
+    <t>Cuota tributaria a aplicar</t>
+  </si>
+  <si>
+    <t>Fecha/Periodo a aplicar</t>
+  </si>
+  <si>
+    <t>Clase de factura</t>
+  </si>
+  <si>
+    <t>Literales legales</t>
+  </si>
+  <si>
+    <t>Base imponible</t>
+  </si>
+  <si>
+    <t>Cálculo de cuotas repercutidas</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Cálculo de cuotas retenidas</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por devolución de envases / embalajes</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por descuentos y bonificaciones</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por resolución firme, judicial o administrativa</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Base imponible modificada cuotas repercutidas no satisfechas. Auto de declaración de concurso</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Criterios de rectificación</t>
+  </si>
+  <si>
+    <t>Rectificación íntegra</t>
+  </si>
+  <si>
+    <t>Rectificación por diferencias</t>
+  </si>
+  <si>
+    <t>Rectificación por descuento por volumen de operaciones durante un periodo</t>
+  </si>
+  <si>
+    <t>Autorizadas por la agencia tributaria</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Roles de centros administrativos</t>
+  </si>
+  <si>
+    <t>AdministrativeCentre (RoleTypeCode)</t>
+  </si>
+  <si>
+    <t>Con carácter general</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
+  <si>
+    <t>Pagador</t>
+  </si>
+  <si>
+    <t>Comprador</t>
+  </si>
+  <si>
+    <t>Cobrador</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Receptor de pago</t>
+  </si>
+  <si>
+    <t>Receptor del cobro</t>
+  </si>
+  <si>
+    <t>Emisor</t>
+  </si>
+  <si>
+    <t>Si se trata de DIR3</t>
+  </si>
+  <si>
+    <t>Oficina Contable</t>
+  </si>
+  <si>
+    <t>Órgano Gestor</t>
+  </si>
+  <si>
+    <t>Unidad Tramitadora</t>
+  </si>
+  <si>
+    <t>Órgano Proponente</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Tipo de Documento</t>
+  </si>
+  <si>
+    <t>Factura Completa</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Factura Simplificada</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Código sin uso desde la entrada en vigor del RD 1789/2010</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,6 +2493,19 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="General Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="General Sans"/>
       <family val="3"/>
     </font>
@@ -2029,7 +2589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2187,6 +2747,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2430,6 +3015,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86264</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1302233" cy="305195"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB89E88-0EA0-407E-8F49-A7A49D6CD409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="88169" y="98700"/>
+          <a:ext cx="1302233" cy="305195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2752,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -3311,8 +3947,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15:E16"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4405,8 +5041,8 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6130,9 +6766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -8700,19 +9336,1275 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568423B1-0E78-433B-BCD0-21C90C14E1CE}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="67" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="42" t="s">
+        <v>642</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65"/>
+      <c r="B28" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="C28" s="64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" s="64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="C30" s="64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" s="64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42" t="s">
+        <v>654</v>
+      </c>
+      <c r="C32" s="64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42" t="s">
+        <v>655</v>
+      </c>
+      <c r="C33" s="64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="C34" s="64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42" t="s">
+        <v>657</v>
+      </c>
+      <c r="C35" s="64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="C36" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="C37" s="64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="C39" s="64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C40" s="64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="C41" s="64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="C42" s="64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42" t="s">
+        <v>665</v>
+      </c>
+      <c r="C43" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="C44" s="64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="C45" s="64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="C46" s="64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42" t="s">
+        <v>669</v>
+      </c>
+      <c r="C47" s="64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="C48" s="64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C49" s="64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="C50" s="64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42" t="s">
+        <v>690</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42" t="s">
+        <v>696</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="61" t="s">
+        <v>698</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="42"/>
+      <c r="B70" s="42" t="s">
+        <v>701</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42" t="s">
+        <v>705</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="42"/>
+      <c r="B76" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="42"/>
+      <c r="B78" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="42"/>
+      <c r="B79" s="42" t="s">
+        <v>710</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="42"/>
+      <c r="B80" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="42"/>
+      <c r="B81" s="42" t="s">
+        <v>712</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="42"/>
+      <c r="B82" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="42"/>
+      <c r="B83" s="42" t="s">
+        <v>714</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="42"/>
+      <c r="B84" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="42"/>
+      <c r="B85" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42"/>
+      <c r="B86" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="42"/>
+      <c r="B87" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="42"/>
+      <c r="B90" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="42"/>
+      <c r="B92" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42"/>
+      <c r="B93" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="64"/>
+      <c r="B94" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="64"/>
+      <c r="B95" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="64"/>
+      <c r="B96" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="64"/>
+      <c r="B97" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="64"/>
+      <c r="B98" s="64" t="s">
+        <v>734</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="64"/>
+      <c r="B99" s="64" t="s">
+        <v>735</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="64"/>
+      <c r="B100" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="64"/>
+      <c r="B101" s="64" t="s">
+        <v>737</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="64"/>
+      <c r="B102" s="64" t="s">
+        <v>738</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="64"/>
+      <c r="B103" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="64"/>
+      <c r="B104" s="64" t="s">
+        <v>740</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="64"/>
+      <c r="B105" s="64" t="s">
+        <v>741</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="64"/>
+      <c r="B106" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="64"/>
+      <c r="B107" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="64"/>
+      <c r="B108" s="64" t="s">
+        <v>747</v>
+      </c>
+      <c r="C108" s="64" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="64"/>
+      <c r="B109" s="64" t="s">
+        <v>749</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="64"/>
+      <c r="B110" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="61" t="s">
+        <v>753</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="C112" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="64"/>
+      <c r="B113" s="64" t="s">
+        <v>756</v>
+      </c>
+      <c r="C113" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="64"/>
+      <c r="B114" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="C114" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="64"/>
+      <c r="B115" s="64" t="s">
+        <v>758</v>
+      </c>
+      <c r="C115" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="B116" s="61" t="s">
+        <v>760</v>
+      </c>
+      <c r="C116" s="61" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37" t="s">
+        <v>762</v>
+      </c>
+      <c r="C117" s="37"/>
+    </row>
+    <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="64"/>
+      <c r="B118" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="64"/>
+      <c r="B119" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64" t="s">
+        <v>765</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="C122" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64" t="s">
+        <v>768</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="64"/>
+      <c r="B124" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="64"/>
+      <c r="B125" s="64" t="s">
+        <v>770</v>
+      </c>
+      <c r="C125" s="64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="64"/>
+      <c r="B126" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="C126" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="37"/>
+      <c r="B127" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="C127" s="37"/>
+    </row>
+    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="64"/>
+      <c r="B128" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="64"/>
+      <c r="B129" s="64" t="s">
+        <v>774</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="64"/>
+      <c r="B130" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="64"/>
+      <c r="B131" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="C131" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="61" t="s">
+        <v>777</v>
+      </c>
+      <c r="B132" s="61" t="s">
+        <v>778</v>
+      </c>
+      <c r="C132" s="61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="64"/>
+      <c r="B133" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="C133" s="64" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="64"/>
+      <c r="B134" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="64"/>
+      <c r="B135" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="C135" s="64" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 Confidential C</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8860,18 +10752,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
